--- a/docs/KG_Metadata_schema_V1.0.xlsx
+++ b/docs/KG_Metadata_schema_V1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p70073484\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p70073484\Desktop\maas uni\kg-metadata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC3B82A-3E66-4296-B58E-7B81D105E1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412BA94-660F-4722-AF64-073C994CA406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1573,10 +1573,10 @@
   <dimension ref="A1:AC998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1648,9 @@
       <c r="A2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
@@ -33131,7 +33133,7 @@
   <customSheetViews>
     <customSheetView guid="{84B17405-BC7B-4FE7-BF65-0C248298BF8B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:B998" xr:uid="{1478FC91-0FF6-4F79-AC6A-341DC28B5C88}"/>
+      <autoFilter ref="B1:B998" xr:uid="{052331C9-9F41-45AA-BBE7-C9A73FCAD601}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
